--- a/References/energy_storage_analysis.xlsx
+++ b/References/energy_storage_analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{BF35E196-3FC6-4F17-B7D2-C31CFEFA6FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692A99D6-9CE0-4BB1-9980-808B45141A37}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{BF35E196-3FC6-4F17-B7D2-C31CFEFA6FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2F6EC39-6A33-463A-B04B-005DE92232A4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="130">
   <si>
     <t>Activity</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>heat, district or industrial, natural gas</t>
-  </si>
-  <si>
-    <t>cathode, NMC622, for Li-ion battery</t>
   </si>
   <si>
     <t>market for anode, graphite, for Li-ion battery</t>
@@ -834,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5054,7 +5051,7 @@
     </row>
     <row r="191" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B191" s="21">
         <v>0.41</v>
@@ -5072,12 +5069,12 @@
         <v>14</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B192" s="21">
         <v>0.2</v>
@@ -5095,12 +5092,12 @@
         <v>14</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="193" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B193" s="21">
         <v>0.14599999999999999</v>
@@ -5118,12 +5115,12 @@
         <v>14</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="194" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B194" s="21">
         <v>0.12</v>
@@ -5141,7 +5138,7 @@
         <v>14</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -5192,7 +5189,7 @@
     </row>
     <row r="197" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B197" s="21">
         <v>0.03</v>
@@ -5210,7 +5207,7 @@
         <v>14</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="198" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -5261,7 +5258,7 @@
     </row>
     <row r="200" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B200" s="21">
         <v>0.02</v>
@@ -5279,12 +5276,12 @@
         <v>14</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="201" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B201" s="21">
         <v>4.1000000000000003E-3</v>
@@ -5302,12 +5299,12 @@
         <v>14</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B202" s="21">
         <v>2.8E-3</v>
@@ -5325,12 +5322,12 @@
         <v>14</v>
       </c>
       <c r="G202" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="203" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B203" s="21">
         <v>1.2999999999999999E-3</v>
@@ -5348,12 +5345,12 @@
         <v>14</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="204" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B204" s="18">
         <v>4.0000000000000001E-10</v>
@@ -5371,7 +5368,7 @@
         <v>14</v>
       </c>
       <c r="G204" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="205" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.35">
